--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/myig/ValueSet/vs-food-allergy-verifstatus</t>
+    <t>https://costateixeira.github.io/FoodAllergy-Webinar/ValueSet/vs-food-allergy-verifstatus</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-12T01:16:17+00:00</t>
+    <t>2022-01-12T01:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-12T01:30:01+00:00</t>
+    <t>2022-01-16T21:48:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T21:48:59+00:00</t>
+    <t>2022-01-27T20:06:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:06:37+00:00</t>
+    <t>2022-01-27T20:20:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T20:20:41+00:00</t>
+    <t>2022-09-30T11:05:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://costateixeira.github.io/FoodAllergy-Webinar/ValueSet/vs-food-allergy-verifstatus</t>
+    <t>https://costateixeira.github.io/allergy/ValueSet/vs-food-allergy-verifstatus</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T11:05:05+00:00</t>
+    <t>2022-09-30T11:40:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Quality of Life Workgroup</t>
+    <t>costateixeira</t>
   </si>
   <si>
     <t>Contact</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Belgium</t>
   </si>
   <si>
     <t>Description</t>
@@ -251,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -341,37 +341,45 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>26</v>
       </c>
     </row>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T11:40:26+00:00</t>
+    <t>2022-09-30T11:49:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://costateixeira.github.io/allergy/ValueSet/vs-food-allergy-verifstatus</t>
+    <t>https://costateixeira.github.io/costateixeira.fhir.allergy/ValueSet/vs-food-allergy-verifstatus</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T11:49:08+00:00</t>
+    <t>2022-09-30T12:05:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:05:10+00:00</t>
+    <t>2022-09-30T12:54:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T12:54:22+00:00</t>
+    <t>2022-10-03T12:00:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
+++ b/branches/master/ValueSet-vs-food-allergy-verifstatus.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-03T12:00:06+00:00</t>
+    <t>2022-10-03T16:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
